--- a/contratos/contratos-6-2020.xlsx
+++ b/contratos/contratos-6-2020.xlsx
@@ -871,7 +871,7 @@
     <t>LOPEZ RICARDO FABIAN</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -1108,7 +1108,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1123,13 +1123,13 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1150,7 +1150,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GONZALEZ SONIA MARIA</t>
@@ -1681,736 +1681,736 @@
     <t>203</t>
   </si>
   <si>
-    <t>44.395,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>882.000,00</t>
-  </si>
-  <si>
-    <t>340.000,00</t>
-  </si>
-  <si>
-    <t>14.850,60</t>
-  </si>
-  <si>
-    <t>3.199,11</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>7.560,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>14.832,22</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>54.010,00</t>
-  </si>
-  <si>
-    <t>21.330,00</t>
-  </si>
-  <si>
-    <t>11.660,00</t>
-  </si>
-  <si>
-    <t>1.359,29</t>
-  </si>
-  <si>
-    <t>952.190,40</t>
-  </si>
-  <si>
-    <t>795.000,00</t>
-  </si>
-  <si>
-    <t>891,40</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>66.037,50</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>6.098,00</t>
-  </si>
-  <si>
-    <t>543.172,57</t>
-  </si>
-  <si>
-    <t>322.917,00</t>
-  </si>
-  <si>
-    <t>581.827,60</t>
-  </si>
-  <si>
-    <t>411.420,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>2.664.587,78</t>
-  </si>
-  <si>
-    <t>7.840,00</t>
-  </si>
-  <si>
-    <t>410.460,00</t>
-  </si>
-  <si>
-    <t>39.857,50</t>
-  </si>
-  <si>
-    <t>176.820,00</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>18.625,30</t>
-  </si>
-  <si>
-    <t>58.058,88</t>
-  </si>
-  <si>
-    <t>32.406,00</t>
-  </si>
-  <si>
-    <t>284.642,72</t>
-  </si>
-  <si>
-    <t>7.250,72</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>13.975,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>1.349,30</t>
-  </si>
-  <si>
-    <t>2.028,40</t>
-  </si>
-  <si>
-    <t>1.999,80</t>
-  </si>
-  <si>
-    <t>1.594,14</t>
-  </si>
-  <si>
-    <t>5.091.739,31</t>
-  </si>
-  <si>
-    <t>59.674,44</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>4.015,00</t>
-  </si>
-  <si>
-    <t>328,00</t>
-  </si>
-  <si>
-    <t>2.389,70</t>
-  </si>
-  <si>
-    <t>2.970,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.419,90</t>
-  </si>
-  <si>
-    <t>3.663,49</t>
-  </si>
-  <si>
-    <t>71.580,33</t>
-  </si>
-  <si>
-    <t>20.398,43</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>22.955,05</t>
-  </si>
-  <si>
-    <t>26.074,21</t>
-  </si>
-  <si>
-    <t>4.953,14</t>
-  </si>
-  <si>
-    <t>30.090,00</t>
-  </si>
-  <si>
-    <t>422,70</t>
-  </si>
-  <si>
-    <t>6.360,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>255.586,58</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>883,00</t>
-  </si>
-  <si>
-    <t>2.639,79</t>
-  </si>
-  <si>
-    <t>1.780,89</t>
-  </si>
-  <si>
-    <t>1.685,79</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>10.280,00</t>
-  </si>
-  <si>
-    <t>16.720,00</t>
-  </si>
-  <si>
-    <t>49.346,94</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>1.523,34</t>
-  </si>
-  <si>
-    <t>54.400,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>4.840,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>67.695,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>4.893,90</t>
-  </si>
-  <si>
-    <t>33.005,00</t>
-  </si>
-  <si>
-    <t>17.200,00</t>
-  </si>
-  <si>
-    <t>6.138,00</t>
-  </si>
-  <si>
-    <t>9.510,00</t>
-  </si>
-  <si>
-    <t>1.333,76</t>
-  </si>
-  <si>
-    <t>1.433,47</t>
-  </si>
-  <si>
-    <t>37.950,00</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>13,50</t>
-  </si>
-  <si>
-    <t>10.580,00</t>
-  </si>
-  <si>
-    <t>19.218,66</t>
-  </si>
-  <si>
-    <t>18.909,18</t>
-  </si>
-  <si>
-    <t>10.130,00</t>
-  </si>
-  <si>
-    <t>47.165,00</t>
-  </si>
-  <si>
-    <t>7.225,32</t>
-  </si>
-  <si>
-    <t>3.540,00</t>
-  </si>
-  <si>
-    <t>19.250,00</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>129.612,56</t>
-  </si>
-  <si>
-    <t>16.254,00</t>
-  </si>
-  <si>
-    <t>23.580,00</t>
-  </si>
-  <si>
-    <t>11.690,00</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>14.908,30</t>
-  </si>
-  <si>
-    <t>443,31</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>4.465,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>5.350,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>1.516,00</t>
-  </si>
-  <si>
-    <t>21.359,35</t>
-  </si>
-  <si>
-    <t>66.535,97</t>
-  </si>
-  <si>
-    <t>7.167,00</t>
-  </si>
-  <si>
-    <t>10.230,00</t>
-  </si>
-  <si>
-    <t>1.038,80</t>
-  </si>
-  <si>
-    <t>34.200,00</t>
-  </si>
-  <si>
-    <t>3.550,00</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>2.790,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>30.676,00</t>
-  </si>
-  <si>
-    <t>3.438,39</t>
-  </si>
-  <si>
-    <t>1.363,00</t>
-  </si>
-  <si>
-    <t>4.240,00</t>
-  </si>
-  <si>
-    <t>43.700,00</t>
-  </si>
-  <si>
-    <t>5.445,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>12.392,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>10.117,40</t>
-  </si>
-  <si>
-    <t>29.608,89</t>
-  </si>
-  <si>
-    <t>3.044,79</t>
-  </si>
-  <si>
-    <t>32.745,47</t>
-  </si>
-  <si>
-    <t>46.040,00</t>
-  </si>
-  <si>
-    <t>18.184,59</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>27.600,00</t>
-  </si>
-  <si>
-    <t>106.610,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>152.821,50</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>46.410,00</t>
-  </si>
-  <si>
-    <t>216.900,00</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>16.810,00</t>
-  </si>
-  <si>
-    <t>27.200,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>21.150,00</t>
-  </si>
-  <si>
-    <t>12.122,00</t>
-  </si>
-  <si>
-    <t>3.727,02</t>
-  </si>
-  <si>
-    <t>569,28</t>
-  </si>
-  <si>
-    <t>21.100,00</t>
-  </si>
-  <si>
-    <t>23.370,00</t>
-  </si>
-  <si>
-    <t>4.501,50</t>
-  </si>
-  <si>
-    <t>541,02</t>
-  </si>
-  <si>
-    <t>7.060,20</t>
-  </si>
-  <si>
-    <t>5.820,00</t>
-  </si>
-  <si>
-    <t>19.540,00</t>
-  </si>
-  <si>
-    <t>19.720,00</t>
-  </si>
-  <si>
-    <t>218.500,00</t>
-  </si>
-  <si>
-    <t>13.915,00</t>
-  </si>
-  <si>
-    <t>42.180,00</t>
-  </si>
-  <si>
-    <t>10.091,40</t>
-  </si>
-  <si>
-    <t>46.180,00</t>
-  </si>
-  <si>
-    <t>288,07</t>
-  </si>
-  <si>
-    <t>4.530,00</t>
-  </si>
-  <si>
-    <t>136,92</t>
-  </si>
-  <si>
-    <t>32.285,00</t>
-  </si>
-  <si>
-    <t>4.750,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>20.700,00</t>
-  </si>
-  <si>
-    <t>3.608,75</t>
-  </si>
-  <si>
-    <t>38.400,00</t>
-  </si>
-  <si>
-    <t>30.600,00</t>
-  </si>
-  <si>
-    <t>2.370,00</t>
-  </si>
-  <si>
-    <t>2.618,46</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>204.056,40</t>
-  </si>
-  <si>
-    <t>85.400,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>17.613.783,73</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>636.000,00</t>
-  </si>
-  <si>
-    <t>3.173.164,49</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>328.270,00</t>
-  </si>
-  <si>
-    <t>303.500,00</t>
-  </si>
-  <si>
-    <t>310.700,00</t>
-  </si>
-  <si>
-    <t>572.000,00</t>
-  </si>
-  <si>
-    <t>758.830,00</t>
-  </si>
-  <si>
-    <t>1.017.000,00</t>
-  </si>
-  <si>
-    <t>434.180,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>621.400,00</t>
-  </si>
-  <si>
-    <t>588.440,00</t>
-  </si>
-  <si>
-    <t>878.780,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>874.930,00</t>
-  </si>
-  <si>
-    <t>327.360,00</t>
-  </si>
-  <si>
-    <t>775.084,59</t>
-  </si>
-  <si>
-    <t>550.000,00</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>9.212,50</t>
-  </si>
-  <si>
-    <t>1.067.123,33</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>1.535,74</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>4.150,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>13.228,00</t>
+    <t>44395.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>882000.00</t>
+  </si>
+  <si>
+    <t>340000.00</t>
+  </si>
+  <si>
+    <t>14850.60</t>
+  </si>
+  <si>
+    <t>3199.11</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>7560.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>14832.22</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>54010.00</t>
+  </si>
+  <si>
+    <t>21330.00</t>
+  </si>
+  <si>
+    <t>11660.00</t>
+  </si>
+  <si>
+    <t>1359.29</t>
+  </si>
+  <si>
+    <t>952190.40</t>
+  </si>
+  <si>
+    <t>795000.00</t>
+  </si>
+  <si>
+    <t>891.40</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>66037.50</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>6098.00</t>
+  </si>
+  <si>
+    <t>543172.57</t>
+  </si>
+  <si>
+    <t>322917.00</t>
+  </si>
+  <si>
+    <t>581827.60</t>
+  </si>
+  <si>
+    <t>411420.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>2664587.78</t>
+  </si>
+  <si>
+    <t>7840.00</t>
+  </si>
+  <si>
+    <t>410460.00</t>
+  </si>
+  <si>
+    <t>39857.50</t>
+  </si>
+  <si>
+    <t>176820.00</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>18625.30</t>
+  </si>
+  <si>
+    <t>58058.88</t>
+  </si>
+  <si>
+    <t>32406.00</t>
+  </si>
+  <si>
+    <t>284642.72</t>
+  </si>
+  <si>
+    <t>7250.72</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>13975.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>1349.30</t>
+  </si>
+  <si>
+    <t>2028.40</t>
+  </si>
+  <si>
+    <t>1999.80</t>
+  </si>
+  <si>
+    <t>1594.14</t>
+  </si>
+  <si>
+    <t>5091739.31</t>
+  </si>
+  <si>
+    <t>59674.44</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>4015.00</t>
+  </si>
+  <si>
+    <t>328.00</t>
+  </si>
+  <si>
+    <t>2389.70</t>
+  </si>
+  <si>
+    <t>2970.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1419.90</t>
+  </si>
+  <si>
+    <t>3663.49</t>
+  </si>
+  <si>
+    <t>71580.33</t>
+  </si>
+  <si>
+    <t>20398.43</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>22955.05</t>
+  </si>
+  <si>
+    <t>26074.21</t>
+  </si>
+  <si>
+    <t>4953.14</t>
+  </si>
+  <si>
+    <t>30090.00</t>
+  </si>
+  <si>
+    <t>422.70</t>
+  </si>
+  <si>
+    <t>6360.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>255586.58</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>883.00</t>
+  </si>
+  <si>
+    <t>2639.79</t>
+  </si>
+  <si>
+    <t>1780.89</t>
+  </si>
+  <si>
+    <t>1685.79</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>10280.00</t>
+  </si>
+  <si>
+    <t>16720.00</t>
+  </si>
+  <si>
+    <t>49346.94</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>1523.34</t>
+  </si>
+  <si>
+    <t>54400.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>4840.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>67695.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>4893.90</t>
+  </si>
+  <si>
+    <t>33005.00</t>
+  </si>
+  <si>
+    <t>17200.00</t>
+  </si>
+  <si>
+    <t>6138.00</t>
+  </si>
+  <si>
+    <t>9510.00</t>
+  </si>
+  <si>
+    <t>1333.76</t>
+  </si>
+  <si>
+    <t>1433.47</t>
+  </si>
+  <si>
+    <t>37950.00</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>10580.00</t>
+  </si>
+  <si>
+    <t>19218.66</t>
+  </si>
+  <si>
+    <t>18909.18</t>
+  </si>
+  <si>
+    <t>10130.00</t>
+  </si>
+  <si>
+    <t>47165.00</t>
+  </si>
+  <si>
+    <t>7225.32</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>19250.00</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>129612.56</t>
+  </si>
+  <si>
+    <t>16254.00</t>
+  </si>
+  <si>
+    <t>23580.00</t>
+  </si>
+  <si>
+    <t>11690.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>14908.30</t>
+  </si>
+  <si>
+    <t>443.31</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>4465.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>5350.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>1516.00</t>
+  </si>
+  <si>
+    <t>21359.35</t>
+  </si>
+  <si>
+    <t>66535.97</t>
+  </si>
+  <si>
+    <t>7167.00</t>
+  </si>
+  <si>
+    <t>10230.00</t>
+  </si>
+  <si>
+    <t>1038.80</t>
+  </si>
+  <si>
+    <t>34200.00</t>
+  </si>
+  <si>
+    <t>3550.00</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>2790.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>30676.00</t>
+  </si>
+  <si>
+    <t>3438.39</t>
+  </si>
+  <si>
+    <t>1363.00</t>
+  </si>
+  <si>
+    <t>4240.00</t>
+  </si>
+  <si>
+    <t>43700.00</t>
+  </si>
+  <si>
+    <t>5445.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>12392.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>10117.40</t>
+  </si>
+  <si>
+    <t>29608.89</t>
+  </si>
+  <si>
+    <t>3044.79</t>
+  </si>
+  <si>
+    <t>32745.47</t>
+  </si>
+  <si>
+    <t>46040.00</t>
+  </si>
+  <si>
+    <t>18184.59</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>106610.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>152821.50</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>46410.00</t>
+  </si>
+  <si>
+    <t>216900.00</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>16810.00</t>
+  </si>
+  <si>
+    <t>27200.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>21150.00</t>
+  </si>
+  <si>
+    <t>12122.00</t>
+  </si>
+  <si>
+    <t>3727.02</t>
+  </si>
+  <si>
+    <t>569.28</t>
+  </si>
+  <si>
+    <t>21100.00</t>
+  </si>
+  <si>
+    <t>23370.00</t>
+  </si>
+  <si>
+    <t>4501.50</t>
+  </si>
+  <si>
+    <t>541.02</t>
+  </si>
+  <si>
+    <t>7060.20</t>
+  </si>
+  <si>
+    <t>5820.00</t>
+  </si>
+  <si>
+    <t>19540.00</t>
+  </si>
+  <si>
+    <t>19720.00</t>
+  </si>
+  <si>
+    <t>218500.00</t>
+  </si>
+  <si>
+    <t>13915.00</t>
+  </si>
+  <si>
+    <t>42180.00</t>
+  </si>
+  <si>
+    <t>10091.40</t>
+  </si>
+  <si>
+    <t>46180.00</t>
+  </si>
+  <si>
+    <t>288.07</t>
+  </si>
+  <si>
+    <t>4530.00</t>
+  </si>
+  <si>
+    <t>136.92</t>
+  </si>
+  <si>
+    <t>32285.00</t>
+  </si>
+  <si>
+    <t>4750.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>20700.00</t>
+  </si>
+  <si>
+    <t>3608.75</t>
+  </si>
+  <si>
+    <t>38400.00</t>
+  </si>
+  <si>
+    <t>30600.00</t>
+  </si>
+  <si>
+    <t>2370.00</t>
+  </si>
+  <si>
+    <t>2618.46</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>204056.40</t>
+  </si>
+  <si>
+    <t>85400.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>17613783.73</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>636000.00</t>
+  </si>
+  <si>
+    <t>3173164.49</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>328270.00</t>
+  </si>
+  <si>
+    <t>303500.00</t>
+  </si>
+  <si>
+    <t>310700.00</t>
+  </si>
+  <si>
+    <t>572000.00</t>
+  </si>
+  <si>
+    <t>758830.00</t>
+  </si>
+  <si>
+    <t>1017000.00</t>
+  </si>
+  <si>
+    <t>434180.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>621400.00</t>
+  </si>
+  <si>
+    <t>588440.00</t>
+  </si>
+  <si>
+    <t>878780.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>874930.00</t>
+  </si>
+  <si>
+    <t>327360.00</t>
+  </si>
+  <si>
+    <t>775084.59</t>
+  </si>
+  <si>
+    <t>550000.00</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>9212.50</t>
+  </si>
+  <si>
+    <t>1067123.33</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>1535.74</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>4150.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>13228.00</t>
   </si>
 </sst>
 </file>
